--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1166.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1166.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.021164718650959</v>
+        <v>1.166052460670471</v>
       </c>
       <c r="B1">
-        <v>1.372761496377945</v>
+        <v>2.428537130355835</v>
       </c>
       <c r="C1">
-        <v>2.311460192286031</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.372776985168457</v>
       </c>
       <c r="E1">
-        <v>1.8275245329456</v>
+        <v>1.23521363735199</v>
       </c>
     </row>
   </sheetData>
